--- a/Pruebas Experimentales/Prueba Temperatura/Prueba 22C/PRUEBA_TEMPERATURA_23_22C.xlsx
+++ b/Pruebas Experimentales/Prueba Temperatura/Prueba 22C/PRUEBA_TEMPERATURA_23_22C.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Datos crudos" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>Timestamp</t>
   </si>
@@ -73,115 +73,151 @@
     <t>Temperature</t>
   </si>
   <si>
-    <t>2023-12-09 00:50:57</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:51:59</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:53:01</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:54:03</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:55:06</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:56:08</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:57:10</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:58:12</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:59:15</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:00:17</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:01:19</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:02:21</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:03:24</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:04:26</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:05:28</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:06:30</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:07:33</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:08:35</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:09:37</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:10:39</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:11:42</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:12:44</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:13:46</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:14:48</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:15:51</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:16:53</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:17:55</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:18:57</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:20:00</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:21:02</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:22:04</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:23:06</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:24:09</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:25:11</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:26:13</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:27:15</t>
-  </si>
-  <si>
-    <t>2023-12-09 01:28:18</t>
+    <t>2023-12-12 02:18:43</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:19:43</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:20:44</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:21:44</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:22:45</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:23:45</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:24:46</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:25:47</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:26:47</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:27:48</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:28:48</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:29:49</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:30:49</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:31:50</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:32:51</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:33:51</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:34:52</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:35:52</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:36:53</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:37:54</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:38:54</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:39:55</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:40:55</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:41:56</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:42:56</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:43:57</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:44:58</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:45:58</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:46:59</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:47:59</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:49:00</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:50:01</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:51:01</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:52:02</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:53:02</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:54:03</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:55:03</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:56:04</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:57:05</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:58:05</t>
+  </si>
+  <si>
+    <t>2023-12-12 02:59:06</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:00:06</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:01:07</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:02:08</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:03:08</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:04:09</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:05:09</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:06:10</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:07:10</t>
   </si>
 </sst>
 </file>
@@ -848,120 +884,156 @@
           </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos crudos'!$E$2:$E$38</c:f>
+              <c:f>'Datos crudos'!$E$2:$E$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
+                  <c:v>26.984265734265701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.1975524475524</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>25.8041958041958</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>25.673076923076898</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>25.279720279720301</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>24.886363636363601</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>25.1486013986014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.7552447552447</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.7552447552447</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.493006993006901</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.312937062936999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23.0506993006993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.230769230769202</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23.0506993006993</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23.181818181818102</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22.788461538461501</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.788461538461501</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.788461538461501</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.788461538461501</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23.837412587412501</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22.6573426573426</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22.6573426573426</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.788461538461501</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.6573426573426</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22.526223776223699</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>22.6573426573426</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>22.526223776223699</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>22.6573426573426</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>22.526223776223699</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22.6573426573426</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>22.526223776223699</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>23.575174825174798</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>22.3951048951049</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>23.837412587412501</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>24.493006993006901</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25.1486013986014</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>25.1486013986014</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>24.624125874125799</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>23.181818181818102</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>23.181818181818102</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23.0506993006993</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>22.788461538461501</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>22.6573426573426</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>22.6573426573426</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22.526223776223699</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>22.526223776223699</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22.526223776223699</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>22.263986013985999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>23.0506993006993</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>23.444055944055901</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>22.919580419580399</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22.263986013985999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>23.0506993006993</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>22.132867132867101</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>22.263986013985999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22.0017482517482</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22.263986013985999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>22.0017482517482</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>22.263986013985999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>22.132867132867101</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>22.132867132867101</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>22.132867132867101</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>22.0017482517482</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>22.263986013985999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>22.263986013985999</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>22.132867132867101</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>22.132867132867101</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>22.0017482517482</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>22.263986013985999</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>22.263986013985999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>22.3951048951049</c:v>
+                <c:pt idx="37">
+                  <c:v>25.8041958041958</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>25.8041958041958</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>26.066433566433599</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>26.1975524475524</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>26.459790209790199</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>26.459790209790199</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>26.328671328671302</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>26.590909090909101</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>26.722027972027998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>26.8531468531468</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>26.590909090909101</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>27.115384615384599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -988,6 +1060,7 @@
         <c:axId val="465778296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1049,6 +1122,7 @@
         <c:axId val="465779280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="22"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1217,34 +1291,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>22.132867132867101</c:v>
+                  <c:v>22.788461538461501</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.132867132867101</c:v>
+                  <c:v>22.6573426573426</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.0017482517482</c:v>
+                  <c:v>22.526223776223699</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.263986013985999</c:v>
+                  <c:v>22.6573426573426</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.263986013985999</c:v>
+                  <c:v>22.526223776223699</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.132867132867101</c:v>
+                  <c:v>22.6573426573426</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.132867132867101</c:v>
+                  <c:v>22.526223776223699</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.0017482517482</c:v>
+                  <c:v>22.6573426573426</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.263986013985999</c:v>
+                  <c:v>22.526223776223699</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.263986013985999</c:v>
+                  <c:v>23.575174825174798</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>22.3951048951049</c:v>
@@ -1344,10 +1418,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>22.180546726001246</c:v>
+                  <c:v>22.681182453909674</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.180546726001246</c:v>
+                  <c:v>22.681182453909674</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3069,10 +3143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3118,17 +3192,17 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>25.8041958041958</v>
+        <v>26.984265734265701</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
       </c>
       <c r="H2">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I2" s="4">
         <f>INDEX(C:C,H2)-C2</f>
-        <v>1.3680555559403729E-2</v>
+        <v>9.8148148172185756E-3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -3145,14 +3219,14 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>25.279720279720301</v>
+        <v>26.1975524475524</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
       </c>
-      <c r="H3">
-        <f>COUNT(E:E)</f>
-        <v>37</v>
+      <c r="H3" s="3">
+        <f>COUNT(E:E)-17</f>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -3169,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>24.886363636363601</v>
+        <v>25.8041958041958</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -3186,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24.624125874125799</v>
+        <v>25.673076923076898</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -3203,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23.181818181818102</v>
+        <v>25.279720279720301</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -3220,7 +3294,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23.181818181818102</v>
+        <v>25.1486013986014</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3237,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>23.0506993006993</v>
+        <v>24.7552447552447</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -3254,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>22.788461538461501</v>
+        <v>24.7552447552447</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -3271,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>22.6573426573426</v>
+        <v>24.493006993006901</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -3288,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>22.6573426573426</v>
+        <v>23.312937062936999</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -3305,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>22.526223776223699</v>
+        <v>23.0506993006993</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -3322,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>22.526223776223699</v>
+        <v>24.230769230769202</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -3339,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>22.526223776223699</v>
+        <v>23.0506993006993</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -3356,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>22.263986013985999</v>
+        <v>23.181818181818102</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -3373,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>23.0506993006993</v>
+        <v>22.788461538461501</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -3390,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>23.444055944055901</v>
+        <v>22.788461538461501</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -3403,11 +3477,11 @@
       <c r="C18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="3">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>22.919580419580399</v>
+        <v>22.788461538461501</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -3424,7 +3498,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>22.263986013985999</v>
+        <v>22.788461538461501</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -3441,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>23.0506993006993</v>
+        <v>23.837412587412501</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -3458,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>22.132867132867101</v>
+        <v>22.6573426573426</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -3475,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>22.263986013985999</v>
+        <v>22.6573426573426</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -3492,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>22.0017482517482</v>
+        <v>22.788461538461501</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -3509,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>22.263986013985999</v>
+        <v>22.6573426573426</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -3526,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>22.0017482517482</v>
+        <v>22.526223776223699</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -3543,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>22.263986013985999</v>
+        <v>22.6573426573426</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -3560,7 +3634,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>22.132867132867101</v>
+        <v>22.526223776223699</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -3577,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>22.132867132867101</v>
+        <v>22.6573426573426</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -3594,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>22.132867132867101</v>
+        <v>22.526223776223699</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -3611,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>22.0017482517482</v>
+        <v>22.6573426573426</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -3628,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>22.263986013985999</v>
+        <v>22.526223776223699</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -3645,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>22.263986013985999</v>
+        <v>23.575174825174798</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -3662,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>22.132867132867101</v>
+        <v>22.3951048951049</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -3679,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>22.132867132867101</v>
+        <v>23.837412587412501</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -3696,7 +3770,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>22.0017482517482</v>
+        <v>24.493006993006901</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -3713,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>22.263986013985999</v>
+        <v>25.1486013986014</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -3730,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>22.263986013985999</v>
+        <v>25.1486013986014</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -3747,12 +3821,217 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>22.3951048951049</v>
+        <v>24.624125874125799</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>23</v>
+      </c>
+      <c r="B39">
+        <v>22</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>25.8041958041958</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>23</v>
+      </c>
+      <c r="B40">
+        <v>22</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>25.8041958041958</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>23</v>
+      </c>
+      <c r="B41">
+        <v>22</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>26.066433566433599</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>23</v>
+      </c>
+      <c r="B42">
+        <v>22</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>26.1975524475524</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>23</v>
+      </c>
+      <c r="B43">
+        <v>22</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>26.459790209790199</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>23</v>
+      </c>
+      <c r="B44">
+        <v>22</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>26.459790209790199</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>23</v>
+      </c>
+      <c r="B45">
+        <v>22</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>26.328671328671302</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>23</v>
+      </c>
+      <c r="B46">
+        <v>22</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>26.590909090909101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>23</v>
+      </c>
+      <c r="B47">
+        <v>22</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>26.722027972027998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>23</v>
+      </c>
+      <c r="B48">
+        <v>22</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>26.8531468531468</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>23</v>
+      </c>
+      <c r="B49">
+        <v>22</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>26.590909090909101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>23</v>
+      </c>
+      <c r="B50">
+        <v>22</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>27.115384615384599</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3760,8 +4039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3786,45 +4065,45 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A2)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 01:17:55</v>
+        <v>2023-12-12 02:39:55</v>
       </c>
       <c r="B2">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A2)-ROW($A$2)-9),"")</f>
-        <v>22.132867132867101</v>
+        <v>22.788461538461501</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
         <f>AVERAGE(B:B)</f>
-        <v>22.180546726001246</v>
+        <v>22.681182453909674</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A3)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 01:18:57</v>
+        <v>2023-12-12 02:40:55</v>
       </c>
       <c r="B3">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A3)-ROW($A$2)-9),"")</f>
-        <v>22.132867132867101</v>
+        <v>22.6573426573426</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3">
         <f>AVERAGE(B:B)</f>
-        <v>22.180546726001246</v>
+        <v>22.681182453909674</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A4)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 01:20:00</v>
+        <v>2023-12-12 02:41:56</v>
       </c>
       <c r="B4">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A4)-ROW($A$2)-9),"")</f>
-        <v>22.0017482517482</v>
+        <v>22.526223776223699</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
@@ -3833,35 +4112,35 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A5)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 01:21:02</v>
+        <v>2023-12-12 02:42:56</v>
       </c>
       <c r="B5">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A5)-ROW($A$2)-9),"")</f>
-        <v>22.263986013985999</v>
+        <v>22.6573426573426</v>
       </c>
       <c r="E5">
         <f>_xlfn.STDEV.S(B:B)</f>
-        <v>0.12120842802499628</v>
+        <v>0.31478463149848956</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A6)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 01:22:04</v>
+        <v>2023-12-12 02:43:57</v>
       </c>
       <c r="B6">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A6)-ROW($A$2)-9),"")</f>
-        <v>22.263986013985999</v>
+        <v>22.526223776223699</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A7)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 01:23:06</v>
+        <v>2023-12-12 02:44:58</v>
       </c>
       <c r="B7">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A7)-ROW($A$2)-9),"")</f>
-        <v>22.132867132867101</v>
+        <v>22.6573426573426</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
@@ -3870,36 +4149,36 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A8)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 01:24:09</v>
+        <v>2023-12-12 02:45:58</v>
       </c>
       <c r="B8">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A8)-ROW($A$2)-9),"")</f>
-        <v>22.132867132867101</v>
+        <v>22.526223776223699</v>
       </c>
       <c r="E8">
         <f>MAX(B:B)</f>
-        <v>22.3951048951049</v>
+        <v>23.575174825174798</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A9)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 01:25:11</v>
+        <v>2023-12-12 02:46:59</v>
       </c>
       <c r="B9">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A9)-ROW($A$2)-9),"")</f>
-        <v>22.0017482517482</v>
+        <v>22.6573426573426</v>
       </c>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A10)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 01:26:13</v>
+        <v>2023-12-12 02:47:59</v>
       </c>
       <c r="B10">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A10)-ROW($A$2)-9),"")</f>
-        <v>22.263986013985999</v>
+        <v>22.526223776223699</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
@@ -3908,21 +4187,21 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A11)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 01:27:15</v>
+        <v>2023-12-12 02:49:00</v>
       </c>
       <c r="B11">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A11)-ROW($A$2)-9),"")</f>
-        <v>22.263986013985999</v>
+        <v>23.575174825174798</v>
       </c>
       <c r="E11">
         <f>MIN(B:B)</f>
-        <v>22.0017482517482</v>
+        <v>22.3951048951049</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A12)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 01:28:18</v>
+        <v>2023-12-12 02:50:01</v>
       </c>
       <c r="B12">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A12)-ROW($A$2)-9),"")</f>
